--- a/PFOA inhalation Rat/Data/PFOA_male_urine_oral_high_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_urine_oral_high_Cui_2010.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\NTUA Post-Doc\PBK models-Evie\PFOA Inhalation\Data\Cui et al., 2010\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32EAC5-7DC0-4A39-882C-4669B73BEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC1881-F8E2-47B8-B7A2-A4A9C8685E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>oral</t>
+  </si>
+  <si>
+    <t>Mass_mg</t>
   </si>
   <si>
     <t>Urine</t>
@@ -56,7 +59,10 @@
     <t>Time_hours</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>urine volume (mL)</t>
+  </si>
+  <si>
+    <t>C ug/mL</t>
   </si>
 </sst>
 </file>
@@ -435,20 +441,20 @@
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -457,198 +463,262 @@
         <v>1</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
       <c r="C2" s="3">
+        <v>1.1452991452991499</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="H2">
+        <f>C2*1000/G2</f>
         <v>86.112717691665395</v>
       </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>72</v>
       </c>
       <c r="C3" s="3">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">C3*1000/G3</f>
         <v>196.07843137254929</v>
       </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>120</v>
       </c>
       <c r="C4" s="3">
+        <v>5.3675213675213698</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>391.78988084097591</v>
       </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>168</v>
       </c>
       <c r="C5" s="3">
+        <v>4.0512820512820502</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>293.57116313638045</v>
       </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>240</v>
       </c>
       <c r="C6" s="3">
+        <v>4.0683760683760699</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>288.53730981390567</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>336</v>
       </c>
       <c r="C7" s="3">
+        <v>4.39316239316239</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>296.83529683529662</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>432</v>
       </c>
       <c r="C8" s="3">
+        <v>4.6837606837606804</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>302.17810862972135</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>504</v>
       </c>
       <c r="C9" s="3">
+        <v>6.7179487179487198</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>417.26389552476513</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>576</v>
       </c>
       <c r="C10" s="3">
+        <v>8.0170940170940792</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>482.95747090928182</v>
       </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>672</v>
       </c>
       <c r="C11" s="3">
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>519.81806367771276</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>

--- a/PFOA inhalation Rat/Data/PFOA_male_urine_oral_high_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_urine_oral_high_Cui_2010.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\NTUA Post-Doc\PBK models-Evie\PFOA Inhalation\Data\Cui et al., 2010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC1881-F8E2-47B8-B7A2-A4A9C8685E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91522E-5B73-46E3-9CF2-E118972CC8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
-  <si>
-    <t>Dose_mg_per_kg</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>Mass_mg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>Urine</t>
   </si>
@@ -59,17 +47,14 @@
     <t>Time_hours</t>
   </si>
   <si>
-    <t>urine volume (mL)</t>
-  </si>
-  <si>
-    <t>C ug/mL</t>
+    <t>Mass_mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +68,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,10 +95,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -117,9 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9AB62EBA-AF9C-4F34-8835-53B8EAB71AC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +430,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,369 +444,421 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1.1452991452991499</v>
       </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="H2">
-        <f>C2*1000/G2</f>
-        <v>86.112717691665395</v>
-      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.6666666666666701</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.05128205128206</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="0">C3*1000/G3</f>
-        <v>196.07843137254929</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5.3675213675213698</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.7179487179487296</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>391.78988084097591</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.0512820512820502</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.7350427350427502</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>293.57116313638045</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>240</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.0683760683760699</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15.1025641025641</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>288.53730981390567</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3">
-        <v>336</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.39316239316239</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.811965811965798</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>296.83529683529662</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
-        <v>432</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.6837606837606804</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C8" s="5">
+        <v>23.863247863247899</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>302.17810862972135</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
-        <v>504</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.7179487179487198</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C9" s="5">
+        <v>27.920227920227902</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>417.26389552476513</v>
-      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3">
-        <v>576</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.0170940170940792</v>
-      </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C10" s="5">
+        <v>31.982905982906001</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>482.95747090928182</v>
-      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>672</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C11" s="5">
+        <v>36.051282051282101</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>519.81806367771276</v>
-      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>264</v>
+      </c>
+      <c r="C12" s="5">
+        <v>40.200854700854698</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>288</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44.431623931624003</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>312</v>
+      </c>
+      <c r="C14" s="5">
+        <v>48.743589743589801</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>336</v>
+      </c>
+      <c r="C15" s="5">
+        <v>53.1367521367522</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="5">
+        <v>57.602564102564102</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>384</v>
+      </c>
+      <c r="C17" s="5">
+        <v>62.1410256410256</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>408</v>
+      </c>
+      <c r="C18" s="5">
+        <v>66.752136752136707</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>432</v>
+      </c>
+      <c r="C19" s="5">
+        <v>71.435897435897402</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>456</v>
+      </c>
+      <c r="C20" s="5">
+        <v>76.7977207977208</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>480</v>
+      </c>
+      <c r="C21" s="5">
+        <v>82.837606837606799</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>504</v>
+      </c>
+      <c r="C22" s="5">
+        <v>89.5555555555556</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>528</v>
+      </c>
+      <c r="C23" s="5">
+        <v>96.706552706552699</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>552</v>
+      </c>
+      <c r="C24" s="5">
+        <v>104.290598290598</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>576</v>
+      </c>
+      <c r="C25" s="5">
+        <v>112.30769230769199</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" s="5">
+        <v>120.542735042735</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>624</v>
+      </c>
+      <c r="C27" s="5">
+        <v>128.99572649572701</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>648</v>
+      </c>
+      <c r="C28" s="5">
+        <v>137.666666666667</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>672</v>
+      </c>
+      <c r="C29" s="5">
+        <v>146.555555555556</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
